--- a/vendor_emails.xlsx
+++ b/vendor_emails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scottw\Desktop\Open po project\email_automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F5208C-6CD9-4B05-8828-F40649791E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D85214C-1BB0-482D-B8BC-61C2C978AA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{94C33985-17C9-4FBE-98C4-BBBE180E30AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{94C33985-17C9-4FBE-98C4-BBBE180E30AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="23">
   <si>
     <t>GOODMAN DISTRIBUTION PARTS</t>
   </si>
@@ -33,9 +33,6 @@
     <t>ALRO PRODUCTS</t>
   </si>
   <si>
-    <t>NEUCO, INC. (BH)</t>
-  </si>
-  <si>
     <t>XANTUS, LLC</t>
   </si>
   <si>
@@ -88,6 +85,15 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>Purchaser</t>
+  </si>
+  <si>
+    <t>PurchaserEmail</t>
+  </si>
+  <si>
+    <t>Lee Forsythe</t>
   </si>
 </sst>
 </file>
@@ -450,174 +456,293 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F59B6D4-2C03-4E50-8C92-9C02D6FB450F}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{E8474448-5C87-412E-A927-625276CB4840}"/>
-    <hyperlink ref="B3:B19" r:id="rId2" display="leeforsythe@rogerssupply.com" xr:uid="{F4A95EE1-3941-43CD-8920-718BF2DB51CD}"/>
+    <hyperlink ref="B3:B18" r:id="rId2" display="leeforsythe@rogerssupply.com" xr:uid="{F4A95EE1-3941-43CD-8920-718BF2DB51CD}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{2C3F4A1F-EFF1-443E-803E-E2AED83A708C}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{DB797F11-AE34-48A2-8D0E-DFE6FC936FE2}"/>
+    <hyperlink ref="D4" r:id="rId5" xr:uid="{18211AEB-CEDB-42CE-B5A0-539A684401C9}"/>
+    <hyperlink ref="D5" r:id="rId6" xr:uid="{22FDEB20-5F16-49C3-B503-E2BFA53FCBA7}"/>
+    <hyperlink ref="D6" r:id="rId7" xr:uid="{1B58AAD3-38FE-4637-A990-2EDC2BE3114B}"/>
+    <hyperlink ref="D7" r:id="rId8" xr:uid="{8B1E7808-4D53-43E7-8AB0-030E2F1B4DBA}"/>
+    <hyperlink ref="D8" r:id="rId9" xr:uid="{42AA81B5-EBAE-447C-80D7-50C5A2B1534F}"/>
+    <hyperlink ref="D9" r:id="rId10" xr:uid="{920F6933-6C4E-4D37-BB12-8753B7C9F92E}"/>
+    <hyperlink ref="D10" r:id="rId11" xr:uid="{F8F8FD5F-5DAB-4B9D-9997-962C75A889B9}"/>
+    <hyperlink ref="D11" r:id="rId12" xr:uid="{3144A6A5-8FFC-4B95-9112-5C93AB83B07D}"/>
+    <hyperlink ref="D12" r:id="rId13" xr:uid="{68E84A92-54A4-439D-9E64-43481607FE73}"/>
+    <hyperlink ref="D13" r:id="rId14" xr:uid="{DA73FC1F-6320-4B0C-8D86-316375C2DEA3}"/>
+    <hyperlink ref="D14" r:id="rId15" xr:uid="{AEAFB0B2-00B1-4CA8-9F66-7B8A0C632EA9}"/>
+    <hyperlink ref="D15" r:id="rId16" xr:uid="{138F2AFF-3469-4BD4-AD04-2C3122B2D924}"/>
+    <hyperlink ref="D16" r:id="rId17" xr:uid="{E95BB096-7B3D-4AC4-AA37-9022850EAA42}"/>
+    <hyperlink ref="D17" r:id="rId18" xr:uid="{FF940775-529B-47FE-8A28-88FD2FD97209}"/>
+    <hyperlink ref="D18" r:id="rId19" xr:uid="{25E4EB5A-21D6-4C87-A435-20BEEA00DC4B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
